--- a/laba111/vah_20.xlsx
+++ b/laba111/vah_20.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\labs\laba111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42A7D99-5977-4382-B57B-EF802899BC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697B284A-446D-4100-9FF7-E085823B76A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>№</t>
   </si>
@@ -50,6 +50,15 @@
   <si>
     <t>Ia, мА</t>
   </si>
+  <si>
+    <t>Dv, мВ</t>
+  </si>
+  <si>
+    <t>Da, мА</t>
+  </si>
+  <si>
+    <t>D_R1, Ом</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +83,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,9 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -373,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +420,18 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -415,8 +448,20 @@
       <c r="E2" s="1">
         <v>271.10000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="2">
+        <f>0.005 *D2 + 0.5*4</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H2" s="2">
+        <f xml:space="preserve"> (0.002 *E2 + 0.01 * 2)</f>
+        <v>0.56220000000000003</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SQRT((G2/E2)^2 + (H2*D2/(E2^2))^2)</f>
+        <v>1.892690390390309E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2 + 1</f>
         <v>2</v>
@@ -428,16 +473,28 @@
         <v>139</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D12" si="0">C3*4</f>
+        <f t="shared" ref="D3:D4" si="0">C3*4</f>
         <v>556</v>
       </c>
       <c r="E3" s="1">
         <v>256.14999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G13" si="1">0.005 *D3 + 0.5*4</f>
+        <v>4.78</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H13" si="2" xml:space="preserve"> (0.002 *E3 + 0.01 * 2)</f>
+        <v>0.5323</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J13" si="3">SQRT((G3/E3)^2 + (H3*D3/(E3^2))^2)</f>
+        <v>1.9198359208566378E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="1">A3 + 1</f>
+        <f t="shared" ref="A4:A10" si="4">A3 + 1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -453,10 +510,22 @@
       <c r="E4" s="1">
         <v>241.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.50258000000000003</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9585527429784852E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -472,10 +541,22 @@
       <c r="E5" s="1">
         <v>227.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>4.46</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.47480000000000006</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0126547730041518E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -491,10 +572,22 @@
       <c r="E6" s="1">
         <v>208.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>4.24</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.43618000000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0869549611764932E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -504,16 +597,28 @@
         <v>98</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D12" si="2">C7*4</f>
+        <f t="shared" ref="D7:D13" si="5">C7*4</f>
         <v>392</v>
       </c>
       <c r="E7" s="1">
         <v>181.76</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.96</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38352000000000003</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2257154815692778E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -523,16 +628,28 @@
         <v>80</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="E8" s="1">
         <v>147.88999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31578000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4776987788838682E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -542,16 +659,28 @@
         <v>64</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
       <c r="E9" s="1">
         <v>118.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25616</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8173135297564402E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -561,14 +690,26 @@
         <v>47</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>188</v>
       </c>
       <c r="E10" s="1">
         <v>87.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.94</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1946</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4017377824158E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>A10 + 1</f>
         <v>10</v>
@@ -580,14 +721,26 @@
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="E11" s="1">
         <v>29.91</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9820000000000002E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="3"/>
+        <v>7.777593939923548E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A11 + 1</f>
         <v>11</v>
@@ -599,11 +752,49 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="E12" s="1">
         <v>10.65</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.12</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.19925276671821199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>A12 + 1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
